--- a/Takács Péter/Test/TeszteljükLe.xlsx
+++ b/Takács Péter/Test/TeszteljükLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8987"/>
+    <workbookView windowWidth="23040" windowHeight="9024" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="289">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Első lépésként válassza ki a Start  gombot, majd az alkalmazáslista Számológép elemét.</t>
   </si>
   <si>
-    <t>(csatolt screeenshot)</t>
+    <t>C:\Users\Bálint\Pictures\Screenshots\jolo.png</t>
   </si>
   <si>
     <t>A számológép megnyílik</t>
@@ -73,10 +73,16 @@
     <t>Válassza ki a Navigáció megnyitása  gombot, majd alapvető matematikai műveletekhez használja a Normál üzemmódot.</t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Pictures\Screenshots\jolo2.png</t>
+  </si>
+  <si>
     <t>Normál üzemmód kiválasztása lehetséges</t>
   </si>
   <si>
     <t>Válassza ki a Navigáció megnyitása  gombot, majd bonyolultabb számításokhoz a válassza a Tudományos üzemmódot.</t>
+  </si>
+  <si>
+    <t>C:\Users\Bálint\Pictures\Screenshots\jolo3.png</t>
   </si>
   <si>
     <t>Tudományos üzemmód kiválasztása lehetséges</t>
@@ -85,16 +91,25 @@
     <t>Válassza ki a Navigáció megnyitása gombot, majd bináris kódhoz a Programozó üzemmódot.</t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Pictures\Screenshots\jolo4.png</t>
+  </si>
+  <si>
     <t>Programozó üzemmód kiválasztása lehetséges</t>
   </si>
   <si>
     <t>Válassza ki a Navigáció megnyitása gombot, majd dátumokkal végzett munkához a Dátumszámítás üzemmódot.</t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Pictures\Screenshots\jolo5.png</t>
+  </si>
+  <si>
     <t>Dátumszámítás üzemmód kiválasztása lehetséges</t>
   </si>
   <si>
     <t>Válassza ki a Navigáció megnyitása gombot, majd mértékegységek átváltásához válassza ki az Átváltás üzemmódot.</t>
+  </si>
+  <si>
+    <t>C:\Users\Bálint\Pictures\Screenshots\jolo6.png</t>
   </si>
   <si>
     <t>Átváltás üzemmód kiválasztása lehetséges</t>
@@ -211,6 +226,9 @@
     <t>S6) PIN Zárolva</t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol.png</t>
+  </si>
+  <si>
     <t>A számológép elindul</t>
   </si>
   <si>
@@ -224,10 +242,16 @@
    Nyisd meg a grafikus üzemmódot</t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol2.png</t>
+  </si>
+  <si>
     <t>A grafikus üzemmód betölt</t>
   </si>
   <si>
     <t xml:space="preserve">    írd be, hogy sin(x)</t>
+  </si>
+  <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol3.png</t>
   </si>
   <si>
     <t>A függvény megjelenik</t>
@@ -238,13 +262,22 @@
 </t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol4.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">
     írd be, hogy  x a harmadik sorba
 </t>
   </si>
   <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol5.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Töröld ki az "X"-et tartalmazó, harmadik sort.
 </t>
+  </si>
+  <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol6.png</t>
   </si>
   <si>
     <t>A függvény eltűnik</t>
@@ -252,6 +285,9 @@
   <si>
     <t xml:space="preserve"> írd be, hogy sin(x^2)&gt;sin(x) és nyomj az enterre.
 </t>
+  </si>
+  <si>
+    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol7.png</t>
   </si>
   <si>
     <t>Az egyenlőtlenség megjelenik</t>
@@ -975,7 +1011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -983,7 +1019,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#\ ##0\ [$Ft]"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1097,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1076,7 +1119,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1084,7 +1127,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1689,14 +1732,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1705,119 +1745,122 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1882,18 +1925,21 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3240,8 +3286,8 @@
   <sheetPr/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -3305,7 +3351,7 @@
       <c r="G2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="46" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3329,10 +3375,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="45" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:8">
@@ -3352,13 +3398,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:8">
@@ -3378,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:8">
@@ -3404,13 +3450,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:8">
@@ -3430,13 +3476,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:8">
@@ -3450,18 +3496,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="47">
+        <v>31</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="49">
         <v>3</v>
       </c>
     </row>
@@ -3476,18 +3522,18 @@
         <v>8</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="47">
+        <v>35</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="49">
         <v>1</v>
       </c>
     </row>
@@ -3502,18 +3548,18 @@
         <v>8</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="47">
+        <v>39</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="49">
         <v>2</v>
       </c>
     </row>
@@ -3528,19 +3574,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="120" customHeight="1" spans="1:8">
@@ -3554,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -4559,17 +4605,17 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G3" r:id="rId2" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G4" r:id="rId2" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G5" r:id="rId2" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G6" r:id="rId2" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G7" r:id="rId2" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G12" r:id="rId3" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103539.png"/>
-    <hyperlink ref="G8" r:id="rId4" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 102859.png"/>
-    <hyperlink ref="G9" r:id="rId5" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103326.png"/>
-    <hyperlink ref="G10" r:id="rId6" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103339.png"/>
-    <hyperlink ref="G11" r:id="rId7" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103358.png"/>
+    <hyperlink ref="G2" r:id="rId1" display="C:\Users\Bálint\Pictures\Screenshots\jolo.png"/>
+    <hyperlink ref="G3" r:id="rId2" display="C:\Users\Bálint\Pictures\Screenshots\jolo2.png"/>
+    <hyperlink ref="G4" r:id="rId3" display="C:\Users\Bálint\Pictures\Screenshots\jolo3.png"/>
+    <hyperlink ref="G5" r:id="rId4" display="C:\Users\Bálint\Pictures\Screenshots\jolo4.png"/>
+    <hyperlink ref="G6" r:id="rId5" display="C:\Users\Bálint\Pictures\Screenshots\jolo5.png"/>
+    <hyperlink ref="G7" r:id="rId6" display="C:\Users\Bálint\Pictures\Screenshots\jolo6.png"/>
+    <hyperlink ref="G12" r:id="rId7" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103539.png"/>
+    <hyperlink ref="G8" r:id="rId8" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 102859.png"/>
+    <hyperlink ref="G9" r:id="rId9" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103326.png"/>
+    <hyperlink ref="G10" r:id="rId10" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103339.png"/>
+    <hyperlink ref="G11" r:id="rId11" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103358.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -4599,19 +4645,19 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4637,19 +4683,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4675,19 +4721,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -4713,19 +4759,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4751,19 +4797,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -4789,19 +4835,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4827,19 +4873,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -32698,83 +32744,83 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="43" t="s">
-        <v>46</v>
+      <c r="A1" s="44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>48</v>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>51</v>
+      <c r="A3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>53</v>
+      <c r="A4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>55</v>
       </c>
+      <c r="C5" s="44" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>57</v>
+      <c r="A6" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>59</v>
+      <c r="A7" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>59</v>
+      <c r="A8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -32790,8 +32836,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -32847,10 +32893,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -32864,19 +32910,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
@@ -32890,19 +32936,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
@@ -32916,19 +32962,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
@@ -32942,19 +32988,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
@@ -32968,19 +33014,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
@@ -32994,30 +33040,30 @@
         <v>8</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G3" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G4" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G5" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G6" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G7" r:id="rId1" display="(csatolt screeenshot)"/>
-    <hyperlink ref="G8" r:id="rId1" display="(csatolt screeenshot)"/>
+    <hyperlink ref="G2" r:id="rId1" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol.png"/>
+    <hyperlink ref="G3" r:id="rId2" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol2.png"/>
+    <hyperlink ref="G4" r:id="rId3" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol3.png"/>
+    <hyperlink ref="G5" r:id="rId4" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol4.png"/>
+    <hyperlink ref="G6" r:id="rId5" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol5.png"/>
+    <hyperlink ref="G7" r:id="rId6" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol6.png"/>
+    <hyperlink ref="G8" r:id="rId7" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol7.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -33044,128 +33090,128 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="27"/>
       <c r="B2" s="26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="27"/>
       <c r="B3" s="26" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="28"/>
       <c r="B4" s="26" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="25" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="26" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="28"/>
       <c r="B7" s="26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="25" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="28"/>
       <c r="B9" s="26" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="25" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="27"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="27"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -33174,16 +33220,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="27"/>
       <c r="B16" s="26" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -33192,7 +33238,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -33232,108 +33278,108 @@
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="21"/>
       <c r="B1" s="21" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="21" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="21" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="21" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:10">
       <c r="A62" s="21"/>
       <c r="B62" s="21" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:10">
       <c r="A63" s="23" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -33347,71 +33393,71 @@
     </row>
     <row r="64" customHeight="1" spans="1:10">
       <c r="A64" s="21" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:10">
       <c r="A65" s="21" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:10">
       <c r="A66" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -33425,7 +33471,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:10">
       <c r="A67" s="21" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -33439,135 +33485,135 @@
     </row>
     <row r="68" customHeight="1" spans="1:10">
       <c r="A68" s="21" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:10">
       <c r="A69" s="24" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:10">
       <c r="A70" s="24" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:10">
       <c r="A71" s="24" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:10">
       <c r="A72" s="21" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -33581,123 +33627,123 @@
     </row>
     <row r="73" customHeight="1" spans="1:10">
       <c r="A73" s="24" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:10">
       <c r="A74" s="24" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:10">
       <c r="A75" s="21" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:1">
       <c r="A79" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:1">
       <c r="A80" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:1">
       <c r="A82" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -33731,91 +33777,91 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="17" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:2">
       <c r="B6" s="18" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="4:4">
       <c r="D9" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:5">
       <c r="C10" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="5:5">
       <c r="E11" s="19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:4">
       <c r="D12" s="19" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="20" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -33844,90 +33890,90 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>181</v>
+      <c r="C3" s="53" t="s">
+        <v>193</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>181</v>
+      <c r="C4" s="53" t="s">
+        <v>193</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -33945,35 +33991,35 @@
         <v>3012345678</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="11" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>206</v>
       </c>
       <c r="C7" s="13">
         <v>2000</v>
@@ -33990,70 +34036,70 @@
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="11" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>206</v>
       </c>
       <c r="C11" s="13">
         <v>2000</v>
@@ -34070,52 +34116,52 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -34148,96 +34194,96 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -34249,41 +34295,41 @@
         <v>909999999</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>206</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>194</v>
       </c>
       <c r="D7" s="9">
         <v>8000</v>
@@ -34292,78 +34338,78 @@
         <v>9985</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -34391,27 +34437,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C2" s="6">
         <f>100000</f>
@@ -34428,10 +34474,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C3" s="6">
         <v>699999</v>
@@ -34447,10 +34493,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C4" s="6">
         <v>240000</v>
@@ -34465,10 +34511,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:25">
       <c r="A5" s="5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C5" s="6">
         <f>749500*1.27</f>
@@ -34487,10 +34533,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C6" s="6">
         <f>380000*1.27</f>
@@ -34506,10 +34552,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C7" s="6">
         <v>319000</v>
@@ -34524,10 +34570,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C8" s="6">
         <v>380000</v>
@@ -34542,10 +34588,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C9" s="6">
         <f>490000*1.27</f>

--- a/Takács Péter/Test/TeszteljükLe.xlsx
+++ b/Takács Péter/Test/TeszteljükLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>Első lépésként válassza ki a Start  gombot, majd az alkalmazáslista Számológép elemét.</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\jolo.png</t>
+    <t>start gomb</t>
   </si>
   <si>
     <t>A számológép megnyílik</t>
@@ -73,7 +73,7 @@
     <t>Válassza ki a Navigáció megnyitása  gombot, majd alapvető matematikai műveletekhez használja a Normál üzemmódot.</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\jolo2.png</t>
+    <t>navigácio alap</t>
   </si>
   <si>
     <t>Normál üzemmód kiválasztása lehetséges</t>
@@ -82,7 +82,7 @@
     <t>Válassza ki a Navigáció megnyitása  gombot, majd bonyolultabb számításokhoz a válassza a Tudományos üzemmódot.</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\jolo3.png</t>
+    <t>navigáció bonyolult</t>
   </si>
   <si>
     <t>Tudományos üzemmód kiválasztása lehetséges</t>
@@ -91,7 +91,7 @@
     <t>Válassza ki a Navigáció megnyitása gombot, majd bináris kódhoz a Programozó üzemmódot.</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\jolo4.png</t>
+    <t>navigáció bináris</t>
   </si>
   <si>
     <t>Programozó üzemmód kiválasztása lehetséges</t>
@@ -100,7 +100,7 @@
     <t>Válassza ki a Navigáció megnyitása gombot, majd dátumokkal végzett munkához a Dátumszámítás üzemmódot.</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\jolo5.png</t>
+    <t>navigáció dátum</t>
   </si>
   <si>
     <t>Dátumszámítás üzemmód kiválasztása lehetséges</t>
@@ -109,7 +109,7 @@
     <t>Válassza ki a Navigáció megnyitása gombot, majd mértékegységek átváltásához válassza ki az Átváltás üzemmódot.</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\jolo6.png</t>
+    <t>navigáció mérték</t>
   </si>
   <si>
     <t>Átváltás üzemmód kiválasztása lehetséges</t>
@@ -124,7 +124,7 @@
     <t>Válassza ki a normál üzemmódot és végezze el a következő műveletet: 1+2</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 102859.png</t>
+    <t>normál 1+2</t>
   </si>
   <si>
     <t>Kivonás</t>
@@ -136,7 +136,7 @@
     <t>Válassza ki a normál üzemmódot és végezze el a következő műveletet: 2-1</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103326.png</t>
+    <t>normál 2-1</t>
   </si>
   <si>
     <t>Szorzás</t>
@@ -148,7 +148,7 @@
     <t>Válassza ki a normál üzemmódot és végezze el a következő műveletet: 2*1</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103339.png</t>
+    <t>normál 2*1</t>
   </si>
   <si>
     <t>Osztás</t>
@@ -160,7 +160,7 @@
     <t>Válassza ki a normál üzemmódot és végezze el a következő műveletet: 1/2</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103358.png</t>
+    <t>normál 1/2</t>
   </si>
   <si>
     <t>0,5</t>
@@ -175,7 +175,7 @@
     <t>Nyisson meg egy számológépet normál üzemmódban és egy másikat tudományos üzemmódban. Írja be mindkét számológépbe a következő egyenletet: 75*0,8+65*0,3</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103539.png</t>
+    <t>normál kontra tudományos</t>
   </si>
   <si>
     <t>79,5 kell legyen mindkét üzemmódban az eredmény</t>
@@ -3047,7 +3047,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5220335" y="0"/>
+        <a:off x="5076190" y="0"/>
         <a:ext cx="5715000" cy="3533775"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3072,7 +3072,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5220335" y="3590925"/>
+        <a:off x="5076190" y="3590925"/>
         <a:ext cx="5715000" cy="3533775"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3287,20 +3287,20 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="15.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="16.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="33.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="16.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="16.847619047619" customWidth="1"/>
+    <col min="4" max="4" width="33.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
-    <col min="7" max="7" width="18.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="21.712962962963" customWidth="1"/>
-    <col min="9" max="26" width="8.71296296296296" customWidth="1"/>
+    <col min="7" max="7" width="18.847619047619" customWidth="1"/>
+    <col min="8" max="8" width="21.7142857142857" customWidth="1"/>
+    <col min="9" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.75" customHeight="1" spans="1:8">
@@ -4605,17 +4605,17 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="C:\Users\Bálint\Pictures\Screenshots\jolo.png"/>
-    <hyperlink ref="G3" r:id="rId2" display="C:\Users\Bálint\Pictures\Screenshots\jolo2.png"/>
-    <hyperlink ref="G4" r:id="rId3" display="C:\Users\Bálint\Pictures\Screenshots\jolo3.png"/>
-    <hyperlink ref="G5" r:id="rId4" display="C:\Users\Bálint\Pictures\Screenshots\jolo4.png"/>
-    <hyperlink ref="G6" r:id="rId5" display="C:\Users\Bálint\Pictures\Screenshots\jolo5.png"/>
-    <hyperlink ref="G7" r:id="rId6" display="C:\Users\Bálint\Pictures\Screenshots\jolo6.png"/>
-    <hyperlink ref="G12" r:id="rId7" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103539.png"/>
-    <hyperlink ref="G8" r:id="rId8" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 102859.png"/>
-    <hyperlink ref="G9" r:id="rId9" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103326.png"/>
-    <hyperlink ref="G10" r:id="rId10" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103339.png"/>
-    <hyperlink ref="G11" r:id="rId11" display="C:\Users\Bálint\Pictures\Screenshots\Screenshot 2023-09-20 103358.png"/>
+    <hyperlink ref="G2" r:id="rId1" display="start gomb"/>
+    <hyperlink ref="G3" r:id="rId2" display="navigácio alap"/>
+    <hyperlink ref="G4" r:id="rId3" display="navigáció bonyolult"/>
+    <hyperlink ref="G5" r:id="rId4" display="navigáció bináris"/>
+    <hyperlink ref="G6" r:id="rId5" display="navigáció dátum"/>
+    <hyperlink ref="G7" r:id="rId6" display="navigáció mérték"/>
+    <hyperlink ref="G12" r:id="rId7" display="normál kontra tudományos"/>
+    <hyperlink ref="G8" r:id="rId8" display="normál 1+2"/>
+    <hyperlink ref="G9" r:id="rId9" display="normál 2-1"/>
+    <hyperlink ref="G10" r:id="rId10" display="normál 2*1"/>
+    <hyperlink ref="G11" r:id="rId11" display="normál 1/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -4631,15 +4631,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="111.425925925926" customWidth="1"/>
-    <col min="4" max="4" width="55.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="111.428571428571" customWidth="1"/>
+    <col min="4" max="4" width="55.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32733,14 +32733,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.8518518518519" customWidth="1"/>
+    <col min="1" max="1" width="24.847619047619" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -32840,11 +32840,11 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="6" max="6" width="46" customWidth="1"/>
-    <col min="7" max="7" width="18.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="26.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.847619047619" customWidth="1"/>
+    <col min="8" max="8" width="26.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -33078,14 +33078,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.287037037037" customWidth="1"/>
-    <col min="2" max="2" width="34.8518518518519" customWidth="1"/>
-    <col min="3" max="3" width="91.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="15.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="34.847619047619" customWidth="1"/>
+    <col min="3" max="3" width="91.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -33265,14 +33265,14 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="16.5740740740741" customWidth="1"/>
-    <col min="3" max="3" width="15.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="42.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -33763,16 +33763,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="46.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="24.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="45.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="47.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="38.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="46.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="45.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="47.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -33878,14 +33878,14 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.287037037037" customWidth="1"/>
-    <col min="4" max="4" width="18.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="50.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="18.847619047619" customWidth="1"/>
+    <col min="5" max="5" width="50.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -34181,15 +34181,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="18.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="50.1388888888889" customWidth="1"/>
-    <col min="6" max="6" width="106.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="18.847619047619" customWidth="1"/>
+    <col min="5" max="5" width="50.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="106.285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -34426,13 +34426,13 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.8518518518519" customWidth="1"/>
-    <col min="2" max="2" width="9.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="22.847619047619" customWidth="1"/>
+    <col min="2" max="2" width="9.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">

--- a/Takács Péter/Test/TeszteljükLe.xlsx
+++ b/Takács Péter/Test/TeszteljükLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11760" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <t>S6) PIN Zárolva</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol.png</t>
+    <t>start gomb teszt</t>
   </si>
   <si>
     <t>A számológép elindul</t>
@@ -242,7 +242,7 @@
    Nyisd meg a grafikus üzemmódot</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol2.png</t>
+    <t>grafikus mód</t>
   </si>
   <si>
     <t>A grafikus üzemmód betölt</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">    írd be, hogy sin(x)</t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol3.png</t>
+    <t>sin(x)</t>
   </si>
   <si>
     <t>A függvény megjelenik</t>
@@ -262,7 +262,7 @@
 </t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol4.png</t>
+    <t>sin(x^2)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -270,14 +270,14 @@
 </t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol5.png</t>
+    <t>harmadik sor x</t>
   </si>
   <si>
     <t xml:space="preserve">Töröld ki az "X"-et tartalmazó, harmadik sort.
 </t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol6.png</t>
+    <t>x törlés</t>
   </si>
   <si>
     <t>A függvény eltűnik</t>
@@ -287,7 +287,7 @@
 </t>
   </si>
   <si>
-    <t>C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol7.png</t>
+    <t>sin(x^2)&gt;sin(x) teszt</t>
   </si>
   <si>
     <t>Az egyenlőtlenség megjelenik</t>
@@ -32837,7 +32837,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -33057,13 +33057,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol.png"/>
-    <hyperlink ref="G3" r:id="rId2" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol2.png"/>
-    <hyperlink ref="G4" r:id="rId3" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol3.png"/>
-    <hyperlink ref="G5" r:id="rId4" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol4.png"/>
-    <hyperlink ref="G6" r:id="rId5" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol5.png"/>
-    <hyperlink ref="G7" r:id="rId6" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol6.png"/>
-    <hyperlink ref="G8" r:id="rId7" display="C:\Users\Bálint\Desktop\github\KA_12D.github.io\Takács Péter\lol7.png"/>
+    <hyperlink ref="G2" r:id="rId1" display="start gomb teszt"/>
+    <hyperlink ref="G3" r:id="rId2" display="grafikus mód"/>
+    <hyperlink ref="G4" r:id="rId3" display="sin(x)"/>
+    <hyperlink ref="G5" r:id="rId4" display="sin(x^2)"/>
+    <hyperlink ref="G6" r:id="rId5" display="harmadik sor x"/>
+    <hyperlink ref="G7" r:id="rId6" display="x törlés"/>
+    <hyperlink ref="G8" r:id="rId7" display="sin(x^2)&gt;sin(x) teszt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
